--- a/storage/excel/Calls.xlsx
+++ b/storage/excel/Calls.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="71">
   <si>
     <t xml:space="preserve">Call deadline</t>
   </si>
@@ -43,6 +43,12 @@
     <t xml:space="preserve">Status</t>
   </si>
   <si>
+    <t xml:space="preserve">Opening Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deadline</t>
+  </si>
+  <si>
     <t xml:space="preserve">EAC/S22/2013</t>
   </si>
   <si>
@@ -202,7 +208,7 @@
     <t xml:space="preserve">CREA-MEDIA-2021-CODEV</t>
   </si>
   <si>
-    <t xml:space="preserve">CODEVELOPMENT</t>
+    <t xml:space="preserve">CODEV</t>
   </si>
   <si>
     <t xml:space="preserve">Open</t>
@@ -214,13 +220,19 @@
     <t xml:space="preserve">CREA-MEDIA-2021-DEVMINISLATE</t>
   </si>
   <si>
-    <t xml:space="preserve">DEVSLATEMINI</t>
+    <t xml:space="preserve">DEVMINISLATE</t>
   </si>
   <si>
     <t xml:space="preserve">CREA-MEDIA-2021-TVONLINE</t>
   </si>
   <si>
+    <t xml:space="preserve">TVONLINE</t>
+  </si>
+  <si>
     <t xml:space="preserve">CREA-MEDIA-2021-FILMOVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FILMOVE</t>
   </si>
 </sst>
 </file>
@@ -238,6 +250,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -360,7 +373,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -395,6 +408,10 @@
     </xf>
     <xf numFmtId="167" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -474,13 +491,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:G69"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.31"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -504,28 +525,34 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>41698</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>41618</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>2014</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -533,22 +560,22 @@
         <v>41698</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>41618</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="8" t="n">
         <v>2014</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -556,22 +583,22 @@
         <v>41698</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>41618</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>2014</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -579,22 +606,22 @@
         <v>41726</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>41618</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" s="8" t="n">
         <v>2014</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -602,22 +629,22 @@
         <v>41726</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>41626</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>2014</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -625,22 +652,22 @@
         <v>41796</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>41671</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F7" s="8" t="n">
         <v>2014</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -648,22 +675,22 @@
         <v>41803</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>41699</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>2014</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -671,22 +698,22 @@
         <v>41822</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>41618</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F9" s="8" t="n">
         <v>2014</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -694,22 +721,22 @@
         <v>41977</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>41918</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>2015</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -717,22 +744,22 @@
         <v>42004</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>41626</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F11" s="8" t="n">
         <v>2014</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -740,22 +767,22 @@
         <v>42017</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>41963</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F12" s="8" t="n">
         <v>2015</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -763,22 +790,22 @@
         <v>42019</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>41970</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>2015</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -786,22 +813,22 @@
         <v>42040</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>41970</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F14" s="8" t="n">
         <v>2015</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -809,22 +836,22 @@
         <v>42089</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>42027</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>2015</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -832,22 +859,22 @@
         <v>42110</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>41970</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F16" s="8" t="n">
         <v>2015</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -855,22 +882,22 @@
         <v>42152</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>41963</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>2015</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -878,22 +905,22 @@
         <v>42187</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>41918</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F18" s="8" t="n">
         <v>2015</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -901,22 +928,22 @@
         <v>42327</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>42270</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F19" s="4" t="n">
         <v>2016</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -924,22 +951,22 @@
         <v>42339</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C20" s="6" t="n">
         <v>42278</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F20" s="8" t="n">
         <v>2016</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -947,22 +974,22 @@
         <v>42341</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>42270</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F21" s="4" t="n">
         <v>2016</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -970,22 +997,22 @@
         <v>42404</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C22" s="6" t="n">
         <v>42304</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F22" s="8" t="n">
         <v>2016</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -993,22 +1020,22 @@
         <v>42432</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>42308</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F23" s="4" t="n">
         <v>2016</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1016,22 +1043,22 @@
         <v>42481</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C24" s="6" t="n">
         <v>42270</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F24" s="8" t="n">
         <v>2016</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1039,22 +1066,22 @@
         <v>42517</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>42270</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F25" s="4" t="n">
         <v>2016</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1062,22 +1089,22 @@
         <v>42535</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C26" s="6" t="n">
         <v>42278</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F26" s="8" t="n">
         <v>2016</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1085,22 +1112,22 @@
         <v>42691</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>42636</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F27" s="4" t="n">
         <v>2017</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1108,22 +1135,22 @@
         <v>42698</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C28" s="6" t="n">
         <v>42640</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F28" s="8" t="n">
         <v>2017</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1131,22 +1158,22 @@
         <v>42705</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>42634</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F29" s="4" t="n">
         <v>2017</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1154,22 +1181,22 @@
         <v>42768</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C30" s="6" t="n">
         <v>42699</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F30" s="8" t="n">
         <v>2017</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1177,22 +1204,22 @@
         <v>42795</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>42075</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F31" s="4" t="n">
         <v>2016</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1200,22 +1227,22 @@
         <v>42795</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C32" s="6" t="n">
         <v>42075</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F32" s="8" t="n">
         <v>2017</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1223,22 +1250,22 @@
         <v>42796</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>42724</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F33" s="4" t="n">
         <v>2017</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1246,22 +1273,22 @@
         <v>42845</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C34" s="6" t="n">
         <v>42636</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F34" s="8" t="n">
         <v>2017</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1269,22 +1296,22 @@
         <v>42885</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>42640</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F35" s="4" t="n">
         <v>2017</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1292,22 +1319,22 @@
         <v>42900</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C36" s="6" t="n">
         <v>42634</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F36" s="8" t="n">
         <v>2017</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1315,22 +1342,22 @@
         <v>43011</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>42472</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F37" s="4" t="n">
         <v>2017</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1338,22 +1365,22 @@
         <v>43011</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>42473</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F38" s="4" t="n">
         <v>2016</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1361,22 +1388,22 @@
         <v>43055</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>42998</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F39" s="4" t="n">
         <v>2018</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1384,22 +1411,22 @@
         <v>43062</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C40" s="6" t="n">
         <v>42997</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F40" s="8" t="n">
         <v>2018</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1407,22 +1434,22 @@
         <v>43074</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>43013</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F41" s="4" t="n">
         <v>2018</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1430,22 +1457,22 @@
         <v>43137</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C42" s="6" t="n">
         <v>43074</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F42" s="8" t="n">
         <v>2018</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1453,22 +1480,22 @@
         <v>43167</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>43090</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F43" s="4" t="n">
         <v>2018</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1476,22 +1503,22 @@
         <v>43209</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C44" s="6" t="n">
         <v>42997</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F44" s="8" t="n">
         <v>2018</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1499,22 +1526,22 @@
         <v>43244</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>42998</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F45" s="4" t="n">
         <v>2018</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1522,22 +1549,22 @@
         <v>43265</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C46" s="6" t="n">
         <v>43013</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F46" s="8" t="n">
         <v>2018</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1545,22 +1572,22 @@
         <v>43376</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>42813</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F47" s="4" t="n">
         <v>2017</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1568,22 +1595,22 @@
         <v>43376</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C48" s="6" t="n">
         <v>42813</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F48" s="8" t="n">
         <v>2018</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1591,22 +1618,22 @@
         <v>43452</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>43391</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F49" s="4" t="n">
         <v>2019</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1614,22 +1641,22 @@
         <v>43452</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C50" s="6" t="n">
         <v>43391</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F50" s="8" t="n">
         <v>2019</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1637,22 +1664,22 @@
         <v>43473</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>43397</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F51" s="4" t="n">
         <v>2019</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1660,22 +1687,22 @@
         <v>43516</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C52" s="6" t="n">
         <v>43411</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F52" s="8" t="n">
         <v>2019</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1683,22 +1710,22 @@
         <v>43523</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>43411</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F53" s="4" t="n">
         <v>2019</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1706,22 +1733,22 @@
         <v>43579</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C54" s="6" t="n">
         <v>43391</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F54" s="8" t="n">
         <v>2019</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1729,22 +1756,22 @@
         <v>43613</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>43391</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F55" s="4" t="n">
         <v>2019</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1752,22 +1779,22 @@
         <v>43620</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C56" s="6" t="n">
         <v>43397</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F56" s="8" t="n">
         <v>2019</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1775,22 +1802,22 @@
         <v>43782</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>43720</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F57" s="4" t="n">
         <v>2020</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1798,22 +1825,22 @@
         <v>43797</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C58" s="6" t="n">
         <v>43727</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F58" s="8" t="n">
         <v>2020</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1821,22 +1848,22 @@
         <v>43809</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>43727</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F59" s="4" t="n">
         <v>2020</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1844,22 +1871,22 @@
         <v>43865</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C60" s="6" t="n">
         <v>43727</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F60" s="8" t="n">
         <v>2020</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1867,22 +1894,22 @@
         <v>43873</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>43727</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F61" s="4" t="n">
         <v>2020</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1890,20 +1917,20 @@
         <v>43963</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F62" s="8" t="n">
         <v>2020</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1911,22 +1938,22 @@
         <v>43965</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>43797</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F63" s="4" t="n">
         <v>2020</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1934,107 +1961,137 @@
         <v>43998</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C64" s="6" t="n">
         <v>43727</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F64" s="8" t="n">
         <v>2020</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2"/>
       <c r="B65" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F65" s="4" t="n">
         <v>2021</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>44348</v>
+      </c>
+      <c r="I65" s="9" t="n">
+        <v>44517</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6"/>
       <c r="B66" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F66" s="8" t="n">
         <v>2021</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>44348</v>
+      </c>
+      <c r="I66" s="9" t="n">
+        <v>44433</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2"/>
       <c r="B67" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="3"/>
       <c r="E67" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F67" s="4" t="n">
         <v>2021</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>44348</v>
+      </c>
+      <c r="I67" s="9" t="n">
+        <v>44420</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6"/>
       <c r="B68" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="F68" s="8" t="n">
         <v>2021</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="H68" s="9" t="n">
+        <v>44348</v>
+      </c>
+      <c r="I68" s="9" t="n">
+        <v>44433</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2"/>
       <c r="B69" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="F69" s="4" t="n">
         <v>2021</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="H69" s="9" t="n">
+        <v>44348</v>
+      </c>
+      <c r="I69" s="9" t="n">
+        <v>44432</v>
       </c>
     </row>
   </sheetData>

--- a/storage/excel/Calls.xlsx
+++ b/storage/excel/Calls.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="69">
   <si>
     <t xml:space="preserve">Call Ref</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opening Date</t>
   </si>
   <si>
     <t xml:space="preserve">Deadline 1</t>
@@ -488,16 +485,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.31"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -522,1564 +518,1556 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>41618</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>2014</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="n">
         <v>41698</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>41618</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>2014</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" s="7" t="n">
         <v>41698</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>41618</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>2014</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3" t="n">
         <v>41698</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="7" t="n">
         <v>41618</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="E5" s="8" t="n">
         <v>2014</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" s="7" t="n">
         <v>41726</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>41626</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E6" s="4" t="n">
         <v>2014</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3" t="n">
         <v>41726</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="7" t="n">
         <v>41671</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="E7" s="8" t="n">
         <v>2014</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7" t="n">
         <v>41796</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>41699</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>2014</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3" t="n">
         <v>41803</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="7" t="n">
         <v>41618</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="E9" s="8" t="n">
         <v>2014</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" s="7" t="n">
         <v>41822</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>41918</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E10" s="4" t="n">
         <v>2015</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3" t="n">
         <v>41977</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="7" t="n">
         <v>41626</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="E11" s="8" t="n">
         <v>2014</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" s="7" t="n">
         <v>42004</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="7" t="n">
         <v>41963</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="E12" s="8" t="n">
         <v>2015</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" s="7" t="n">
         <v>42017</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>41970</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>2015</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G13" s="3" t="n">
         <v>42019</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="7" t="n">
         <v>41970</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="E14" s="8" t="n">
         <v>2015</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" s="7" t="n">
         <v>42040</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>42027</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E15" s="4" t="n">
         <v>2015</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" s="3" t="n">
         <v>42089</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="7" t="n">
         <v>41970</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="E16" s="8" t="n">
         <v>2015</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" s="7" t="n">
         <v>42110</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>41963</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E17" s="4" t="n">
         <v>2015</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G17" s="3" t="n">
         <v>42152</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="7" t="n">
         <v>41918</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="E18" s="8" t="n">
         <v>2015</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G18" s="7" t="n">
         <v>42187</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>42270</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>2016</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" s="3" t="n">
         <v>42327</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="7" t="n">
         <v>42278</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="E20" s="8" t="n">
         <v>2016</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G20" s="7" t="n">
         <v>42339</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="3" t="n">
         <v>42270</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E21" s="4" t="n">
         <v>2016</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G21" s="3" t="n">
         <v>42341</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="7" t="n">
         <v>42304</v>
       </c>
       <c r="C22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="E22" s="8" t="n">
         <v>2016</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G22" s="7" t="n">
         <v>42404</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>42308</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E23" s="4" t="n">
         <v>2016</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G23" s="3" t="n">
         <v>42432</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="7" t="n">
         <v>42270</v>
       </c>
       <c r="C24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="E24" s="8" t="n">
         <v>2016</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G24" s="7" t="n">
         <v>42481</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="3" t="n">
         <v>42270</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E25" s="4" t="n">
         <v>2016</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G25" s="3" t="n">
         <v>42517</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="7" t="n">
         <v>42278</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="E26" s="8" t="n">
         <v>2016</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G26" s="7" t="n">
         <v>42535</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="3" t="n">
         <v>42636</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E27" s="4" t="n">
         <v>2017</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G27" s="3" t="n">
         <v>42691</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="7" t="n">
         <v>42640</v>
       </c>
       <c r="C28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="E28" s="8" t="n">
         <v>2017</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G28" s="7" t="n">
         <v>42698</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="3" t="n">
         <v>42634</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E29" s="4" t="n">
         <v>2017</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G29" s="3" t="n">
         <v>42705</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="7" t="n">
         <v>42699</v>
       </c>
       <c r="C30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="E30" s="8" t="n">
         <v>2017</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G30" s="7" t="n">
         <v>42768</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="3" t="n">
         <v>42075</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E31" s="4" t="n">
         <v>2016</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G31" s="3" t="n">
         <v>42795</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="7" t="n">
         <v>42075</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E32" s="8" t="n">
         <v>2017</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G32" s="7" t="n">
         <v>42795</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="3" t="n">
         <v>42724</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E33" s="4" t="n">
         <v>2017</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G33" s="3" t="n">
         <v>42796</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="7" t="n">
         <v>42636</v>
       </c>
       <c r="C34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="E34" s="8" t="n">
         <v>2017</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G34" s="7" t="n">
         <v>42845</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3" t="n">
         <v>42640</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E35" s="4" t="n">
         <v>2017</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G35" s="3" t="n">
         <v>42885</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="7" t="n">
         <v>42634</v>
       </c>
       <c r="C36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="E36" s="8" t="n">
         <v>2017</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G36" s="7" t="n">
         <v>42900</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="3" t="n">
         <v>42472</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E37" s="4" t="n">
         <v>2017</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G37" s="3" t="n">
         <v>43011</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="3" t="n">
         <v>42473</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E38" s="4" t="n">
         <v>2016</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G38" s="3" t="n">
         <v>43011</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="3" t="n">
         <v>42998</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E39" s="4" t="n">
         <v>2018</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G39" s="3" t="n">
         <v>43055</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="7" t="n">
         <v>42997</v>
       </c>
       <c r="C40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="E40" s="8" t="n">
         <v>2018</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G40" s="7" t="n">
         <v>43062</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="3" t="n">
         <v>43013</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E41" s="4" t="n">
         <v>2018</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G41" s="3" t="n">
         <v>43074</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="7" t="n">
         <v>43074</v>
       </c>
       <c r="C42" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="E42" s="8" t="n">
         <v>2018</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G42" s="7" t="n">
         <v>43137</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="3" t="n">
         <v>43090</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E43" s="4" t="n">
         <v>2018</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G43" s="3" t="n">
         <v>43167</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="7" t="n">
         <v>42997</v>
       </c>
       <c r="C44" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="E44" s="8" t="n">
         <v>2018</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H44" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G44" s="7" t="n">
         <v>43209</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
         <v>42998</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E45" s="4" t="n">
         <v>2018</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G45" s="3" t="n">
         <v>43244</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="7" t="n">
         <v>43013</v>
       </c>
       <c r="C46" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="E46" s="8" t="n">
         <v>2018</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G46" s="7" t="n">
         <v>43265</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" s="3" t="n">
         <v>42813</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E47" s="4" t="n">
         <v>2017</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G47" s="3" t="n">
         <v>43376</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="7" t="n">
         <v>42813</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E48" s="8" t="n">
         <v>2018</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G48" s="7" t="n">
         <v>43376</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" s="3" t="n">
         <v>43391</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E49" s="4" t="n">
         <v>2019</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G49" s="3" t="n">
         <v>43452</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="7" t="n">
         <v>43391</v>
       </c>
       <c r="C50" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="E50" s="8" t="n">
         <v>2019</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G50" s="7" t="n">
         <v>43452</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" s="3" t="n">
         <v>43397</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E51" s="4" t="n">
         <v>2019</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G51" s="3" t="n">
         <v>43473</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" s="7" t="n">
         <v>43411</v>
       </c>
       <c r="C52" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="E52" s="8" t="n">
         <v>2019</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H52" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G52" s="7" t="n">
         <v>43516</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" s="3" t="n">
         <v>43411</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E53" s="4" t="n">
         <v>2019</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G53" s="3" t="n">
         <v>43523</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B54" s="7" t="n">
         <v>43391</v>
       </c>
       <c r="C54" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="E54" s="8" t="n">
         <v>2019</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G54" s="7" t="n">
         <v>43579</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B55" s="3" t="n">
         <v>43391</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E55" s="4" t="n">
         <v>2019</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G55" s="3" t="n">
         <v>43613</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B56" s="7" t="n">
         <v>43397</v>
       </c>
       <c r="C56" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="E56" s="8" t="n">
         <v>2019</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H56" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G56" s="7" t="n">
         <v>43620</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="3" t="n">
         <v>43720</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E57" s="4" t="n">
         <v>2020</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G57" s="3" t="n">
         <v>43782</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="7" t="n">
         <v>43727</v>
       </c>
       <c r="C58" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="E58" s="8" t="n">
         <v>2020</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G58" s="7" t="n">
         <v>43797</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="3" t="n">
         <v>43727</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E59" s="4" t="n">
         <v>2020</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H59" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G59" s="3" t="n">
         <v>43809</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="7" t="n">
         <v>43727</v>
       </c>
       <c r="C60" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="E60" s="8" t="n">
         <v>2020</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H60" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G60" s="7" t="n">
         <v>43865</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="3" t="n">
         <v>43727</v>
       </c>
       <c r="C61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E61" s="4" t="n">
         <v>2020</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H61" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G61" s="3" t="n">
         <v>43873</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="E62" s="8" t="n">
         <v>2020</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H62" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G62" s="7" t="n">
         <v>43963</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B63" s="3" t="n">
         <v>43797</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E63" s="4" t="n">
         <v>2020</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H63" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G63" s="3" t="n">
         <v>43965</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B64" s="7" t="n">
         <v>43727</v>
       </c>
       <c r="C64" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="E64" s="8" t="n">
         <v>2020</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H64" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G64" s="7" t="n">
         <v>43998</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B65" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="B65" s="9" t="n">
+        <v>44348</v>
+      </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E65" s="4" t="n">
         <v>2021</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G65" s="9" t="n">
-        <v>44348</v>
-      </c>
-      <c r="H65" s="9" t="n">
         <v>44517</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B66" s="7"/>
+        <v>62</v>
+      </c>
+      <c r="B66" s="9" t="n">
+        <v>44348</v>
+      </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E66" s="8" t="n">
         <v>2021</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G66" s="9" t="n">
-        <v>44348</v>
-      </c>
-      <c r="H66" s="9" t="n">
         <v>44433</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B67" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="B67" s="9" t="n">
+        <v>44348</v>
+      </c>
       <c r="C67" s="2"/>
       <c r="D67" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E67" s="4" t="n">
         <v>2021</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G67" s="9" t="n">
-        <v>44348</v>
-      </c>
-      <c r="H67" s="9" t="n">
         <v>44420</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B68" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="B68" s="9" t="n">
+        <v>44348</v>
+      </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E68" s="8" t="n">
         <v>2021</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G68" s="9" t="n">
-        <v>44348</v>
-      </c>
-      <c r="H68" s="9" t="n">
         <v>44433</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="B69" s="9" t="n">
+        <v>44348</v>
+      </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E69" s="4" t="n">
         <v>2021</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G69" s="9" t="n">
-        <v>44348</v>
-      </c>
-      <c r="H69" s="9" t="n">
         <v>44432</v>
       </c>
     </row>
